--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Danlaw Technologies India Ltd/Pruned_Excel/Semi_Final/Danlaw Technologies India Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Danlaw Technologies India Ltd/Pruned_Excel/Semi_Final/Danlaw Technologies India Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Danlaw Technologies India(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Danlaw Technologies India(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Danlaw Technologies India(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,49 +278,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>3.22</v>
-      </c>
-      <c r="C2">
-        <v>24.66</v>
       </c>
       <c r="D2">
         <v>24.66</v>
       </c>
       <c r="E2">
+        <v>24.66</v>
+      </c>
+      <c r="F2">
         <v>27.88</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.27</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>28.3</v>
-      </c>
-      <c r="I2">
-        <v>2.7</v>
       </c>
       <c r="J2">
         <v>2.7</v>
       </c>
       <c r="K2">
+        <v>2.7</v>
+      </c>
+      <c r="L2">
         <v>13.46</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>14.84</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>28.3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>3.72</v>
-      </c>
-      <c r="C3">
-        <v>27.57</v>
       </c>
       <c r="D3">
         <v>27.57</v>
       </c>
       <c r="E3">
+        <v>27.57</v>
+      </c>
+      <c r="F3">
         <v>31.29</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.26</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.39</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>32.13</v>
-      </c>
-      <c r="I3">
-        <v>2.33</v>
       </c>
       <c r="J3">
         <v>2.33</v>
       </c>
       <c r="K3">
+        <v>2.33</v>
+      </c>
+      <c r="L3">
         <v>16.07</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>16.06</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>32.13</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>3.72</v>
-      </c>
-      <c r="C4">
-        <v>27.95</v>
       </c>
       <c r="D4">
         <v>27.95</v>
       </c>
       <c r="E4">
+        <v>27.95</v>
+      </c>
+      <c r="F4">
         <v>31.67</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.07</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.51</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>34.35</v>
-      </c>
-      <c r="I4">
-        <v>1.93</v>
       </c>
       <c r="J4">
         <v>1.93</v>
       </c>
       <c r="K4">
+        <v>1.93</v>
+      </c>
+      <c r="L4">
         <v>17.04</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>17.31</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>34.35</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>3.72</v>
-      </c>
-      <c r="C5">
-        <v>27.82</v>
       </c>
       <c r="D5">
         <v>27.82</v>
       </c>
       <c r="E5">
+        <v>27.82</v>
+      </c>
+      <c r="F5">
         <v>31.54</v>
-      </c>
-      <c r="F5">
-        <v>2.31</v>
       </c>
       <c r="G5">
         <v>2.31</v>
       </c>
       <c r="H5">
+        <v>2.31</v>
+      </c>
+      <c r="I5">
         <v>33.91</v>
-      </c>
-      <c r="I5">
-        <v>1.69</v>
       </c>
       <c r="J5">
         <v>1.69</v>
       </c>
       <c r="K5">
+        <v>1.69</v>
+      </c>
+      <c r="L5">
         <v>16.99</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>16.91</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>33.91</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>3.72</v>
-      </c>
-      <c r="C6">
-        <v>17.95</v>
       </c>
       <c r="D6">
         <v>17.95</v>
       </c>
       <c r="E6">
+        <v>17.95</v>
+      </c>
+      <c r="F6">
         <v>21.67</v>
-      </c>
-      <c r="F6">
-        <v>1.89</v>
       </c>
       <c r="G6">
         <v>1.89</v>
       </c>
       <c r="H6">
+        <v>1.89</v>
+      </c>
+      <c r="I6">
         <v>25.35</v>
-      </c>
-      <c r="I6">
-        <v>1.25</v>
       </c>
       <c r="J6">
         <v>1.25</v>
       </c>
       <c r="K6">
+        <v>1.25</v>
+      </c>
+      <c r="L6">
         <v>8.98</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>16.37</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>25.35</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>3.72</v>
-      </c>
-      <c r="C7">
-        <v>17.59</v>
       </c>
       <c r="D7">
         <v>17.59</v>
       </c>
       <c r="E7">
+        <v>17.59</v>
+      </c>
+      <c r="F7">
         <v>21.32</v>
-      </c>
-      <c r="F7">
-        <v>1.97</v>
       </c>
       <c r="G7">
         <v>1.97</v>
       </c>
       <c r="H7">
+        <v>1.97</v>
+      </c>
+      <c r="I7">
         <v>25.94</v>
-      </c>
-      <c r="I7">
-        <v>1.15</v>
       </c>
       <c r="J7">
         <v>1.15</v>
       </c>
       <c r="K7">
+        <v>1.15</v>
+      </c>
+      <c r="L7">
         <v>9.02</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>16.92</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>25.94</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>3.72</v>
-      </c>
-      <c r="C8">
-        <v>17.3</v>
       </c>
       <c r="D8">
         <v>17.3</v>
       </c>
       <c r="E8">
+        <v>17.3</v>
+      </c>
+      <c r="F8">
         <v>21.02</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.3</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3.22</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>24.83</v>
-      </c>
-      <c r="I8">
-        <v>1.11</v>
       </c>
       <c r="J8">
         <v>1.11</v>
       </c>
       <c r="K8">
+        <v>1.11</v>
+      </c>
+      <c r="L8">
         <v>9.699999999999999</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15.13</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>24.83</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>3.72</v>
-      </c>
-      <c r="C9">
-        <v>17.05</v>
       </c>
       <c r="D9">
         <v>17.05</v>
       </c>
       <c r="E9">
+        <v>17.05</v>
+      </c>
+      <c r="F9">
         <v>20.77</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.38</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.88</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>22.23</v>
-      </c>
-      <c r="I9">
-        <v>1.21</v>
       </c>
       <c r="J9">
         <v>1.21</v>
       </c>
       <c r="K9">
+        <v>1.21</v>
+      </c>
+      <c r="L9">
         <v>8.92</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>13.31</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>22.23</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>3.72</v>
-      </c>
-      <c r="C10">
-        <v>18.31</v>
       </c>
       <c r="D10">
         <v>18.31</v>
       </c>
       <c r="E10">
+        <v>18.31</v>
+      </c>
+      <c r="F10">
         <v>22.03</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.23</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.28</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>22.35</v>
-      </c>
-      <c r="I10">
-        <v>1.11</v>
       </c>
       <c r="J10">
         <v>1.11</v>
       </c>
       <c r="K10">
+        <v>1.11</v>
+      </c>
+      <c r="L10">
         <v>8.23</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>14.11</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>22.35</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>3.72</v>
-      </c>
-      <c r="C11">
-        <v>18.71</v>
       </c>
       <c r="D11">
         <v>18.71</v>
       </c>
       <c r="E11">
+        <v>18.71</v>
+      </c>
+      <c r="F11">
         <v>22.43</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.31</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.37</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>22.8</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.37</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>8.23</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>14.57</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>22.8</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>3.72</v>
-      </c>
-      <c r="C12">
-        <v>19.19</v>
       </c>
       <c r="D12">
         <v>19.19</v>
       </c>
       <c r="E12">
+        <v>19.19</v>
+      </c>
+      <c r="F12">
         <v>22.91</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.29</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.83</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>23.74</v>
-      </c>
-      <c r="I12">
-        <v>0.78</v>
       </c>
       <c r="J12">
         <v>0.78</v>
       </c>
       <c r="K12">
+        <v>0.78</v>
+      </c>
+      <c r="L12">
         <v>7.65</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>16.09</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>23.74</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>3.72</v>
-      </c>
-      <c r="C13">
-        <v>21.09</v>
       </c>
       <c r="D13">
         <v>21.09</v>
       </c>
       <c r="E13">
+        <v>21.09</v>
+      </c>
+      <c r="F13">
         <v>24.81</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.33</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.99</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>25.81</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.58</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.67</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>7.3</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>18.51</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>25.81</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>3.72</v>
-      </c>
-      <c r="C14">
-        <v>19.08</v>
       </c>
       <c r="D14">
         <v>19.08</v>
       </c>
       <c r="E14">
+        <v>19.08</v>
+      </c>
+      <c r="F14">
         <v>22.8</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.78</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.09</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>23.89</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.65</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.6899999999999999</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4.15</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>19.74</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>23.89</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>3.71</v>
-      </c>
-      <c r="C15">
-        <v>20.16</v>
       </c>
       <c r="D15">
         <v>20.16</v>
       </c>
       <c r="E15">
+        <v>20.16</v>
+      </c>
+      <c r="F15">
         <v>23.86</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.76</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5.12</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>28.99</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.86</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.9</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4.39</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>24.6</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>28.99</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>3.71</v>
-      </c>
-      <c r="C16">
-        <v>20.46</v>
       </c>
       <c r="D16">
         <v>20.46</v>
       </c>
       <c r="E16">
+        <v>20.46</v>
+      </c>
+      <c r="F16">
         <v>24.17</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.96</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>9.949999999999999</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>34.64</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.9</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.18</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>18.24</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>16.4</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>34.64</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>3.71</v>
-      </c>
-      <c r="C17">
-        <v>17.38</v>
       </c>
       <c r="D17">
         <v>17.38</v>
       </c>
       <c r="E17">
+        <v>17.38</v>
+      </c>
+      <c r="F17">
         <v>21.09</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>13.12</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>16.59</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>39.23</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.93</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5.33</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>25.63</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>13.6</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>39.23</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>3.71</v>
-      </c>
-      <c r="C18">
-        <v>14.61</v>
       </c>
       <c r="D18">
         <v>14.61</v>
       </c>
       <c r="E18">
+        <v>14.61</v>
+      </c>
+      <c r="F18">
         <v>18.32</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>14.81</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>15.34</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>34.18</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2.62</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6.99</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>25.98</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>8.199999999999999</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>34.18</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>3.71</v>
-      </c>
-      <c r="C19">
-        <v>18.87</v>
       </c>
       <c r="D19">
         <v>18.87</v>
       </c>
       <c r="E19">
+        <v>18.87</v>
+      </c>
+      <c r="F19">
         <v>22.57</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.73</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>11.71</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>34.83</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1.48</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5.68</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>21.4</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>13.44</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>34.83</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>4.87</v>
-      </c>
-      <c r="C20">
-        <v>31.02</v>
       </c>
       <c r="D20">
         <v>31.02</v>
       </c>
       <c r="E20">
+        <v>31.02</v>
+      </c>
+      <c r="F20">
         <v>35.9</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>17.61</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>39.82</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>112.48</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>33.36</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>33.66</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>33.88</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>78.59999999999999</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>112.48</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>4.87</v>
-      </c>
-      <c r="C21">
-        <v>53</v>
       </c>
       <c r="D21">
         <v>53</v>
       </c>
       <c r="E21">
+        <v>53</v>
+      </c>
+      <c r="F21">
         <v>57.87</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>15.48</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>43.76</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>132.83</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>30.75</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>30.9</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>31.13</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>101.7</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>132.83</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>-1.64</v>
+      </c>
+      <c r="E2">
+        <v>2.94</v>
+      </c>
+      <c r="F2">
+        <v>0.15</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.45</v>
+      </c>
+      <c r="I2">
+        <v>8.56</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>0.62</v>
+      </c>
+      <c r="D3">
+        <v>-2.76</v>
+      </c>
+      <c r="E3">
+        <v>-1.49</v>
+      </c>
+      <c r="F3">
+        <v>3.4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-0.84</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>0.12</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.05</v>
+      </c>
+      <c r="F4">
+        <v>-0.08</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.37</v>
+      </c>
+      <c r="I4">
+        <v>9.16</v>
+      </c>
+      <c r="J4">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>-2.73</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-0.12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-2.85</v>
+      </c>
+      <c r="I5">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="J5">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>-12.37</v>
+      </c>
+      <c r="D6">
+        <v>-2.65</v>
+      </c>
+      <c r="E6">
+        <v>0.41</v>
+      </c>
+      <c r="F6">
+        <v>1.74</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-0.51</v>
+      </c>
+      <c r="I6">
+        <v>6.68</v>
+      </c>
+      <c r="J6">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>-0.52</v>
+      </c>
+      <c r="D7">
+        <v>-0.93</v>
+      </c>
+      <c r="E7">
+        <v>-0.06</v>
+      </c>
+      <c r="F7">
+        <v>0.87</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-0.12</v>
+      </c>
+      <c r="I7">
+        <v>6.16</v>
+      </c>
+      <c r="J7">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>-0.05</v>
+      </c>
+      <c r="D8">
+        <v>0.35</v>
+      </c>
+      <c r="E8">
+        <v>-0.11</v>
+      </c>
+      <c r="F8">
+        <v>-0.14</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+      <c r="I8">
+        <v>6.04</v>
+      </c>
+      <c r="J8">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>-0.16</v>
+      </c>
+      <c r="D9">
+        <v>5.15</v>
+      </c>
+      <c r="E9">
+        <v>-0.24</v>
+      </c>
+      <c r="F9">
+        <v>-2.49</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.42</v>
+      </c>
+      <c r="I9">
+        <v>6.15</v>
+      </c>
+      <c r="J9">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>1.85</v>
+      </c>
+      <c r="D10">
+        <v>2.24</v>
+      </c>
+      <c r="E10">
+        <v>-0.01</v>
+      </c>
+      <c r="F10">
+        <v>-0.08</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.15</v>
+      </c>
+      <c r="I10">
+        <v>8.56</v>
+      </c>
+      <c r="J10">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>0.61</v>
+      </c>
+      <c r="D11">
+        <v>2.22</v>
+      </c>
+      <c r="E11">
+        <v>-0.38</v>
+      </c>
+      <c r="F11">
+        <v>-0.01</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1.83</v>
+      </c>
+      <c r="I11">
+        <v>10.71</v>
+      </c>
+      <c r="J11">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>0.92</v>
+      </c>
+      <c r="D12">
+        <v>0.47</v>
+      </c>
+      <c r="E12">
+        <v>-0.13</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.33</v>
+      </c>
+      <c r="I12">
+        <v>12.55</v>
+      </c>
+      <c r="J12">
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>2.78</v>
+      </c>
+      <c r="D13">
+        <v>2.31</v>
+      </c>
+      <c r="E13">
+        <v>-0.12</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2.19</v>
+      </c>
+      <c r="I13">
+        <v>12.88</v>
+      </c>
+      <c r="J13">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>1.6</v>
+      </c>
+      <c r="D14">
+        <v>-1.93</v>
+      </c>
+      <c r="E14">
+        <v>-0.21</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-2.14</v>
+      </c>
+      <c r="I14">
+        <v>15.08</v>
+      </c>
+      <c r="J14">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1.61</v>
+      </c>
+      <c r="D15">
+        <v>-4</v>
+      </c>
+      <c r="E15">
+        <v>-0.48</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>-4.48</v>
+      </c>
+      <c r="I15">
+        <v>12.94</v>
+      </c>
+      <c r="J15">
+        <v>8.460000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>0.42</v>
+      </c>
+      <c r="D16">
+        <v>9.67</v>
+      </c>
+      <c r="E16">
+        <v>-13.51</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>-3.84</v>
+      </c>
+      <c r="I16">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="J16">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>-4.04</v>
+      </c>
+      <c r="D17">
+        <v>4.14</v>
+      </c>
+      <c r="E17">
+        <v>-4.61</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>-0.47</v>
+      </c>
+      <c r="I17">
+        <v>4.62</v>
+      </c>
+      <c r="J17">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>3.79</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>-1.56</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>-1.56</v>
+      </c>
+      <c r="I18">
+        <v>4.15</v>
+      </c>
+      <c r="J18">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>4.61</v>
+      </c>
+      <c r="D19">
+        <v>-0.86</v>
+      </c>
+      <c r="E19">
+        <v>2.17</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1.31</v>
+      </c>
+      <c r="I19">
+        <v>2.59</v>
+      </c>
+      <c r="J19">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>10.89</v>
+      </c>
+      <c r="D20">
+        <v>6.98</v>
+      </c>
+      <c r="E20">
+        <v>-3.92</v>
+      </c>
+      <c r="F20">
+        <v>0.02</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3.07</v>
+      </c>
+      <c r="I20">
+        <v>4.19</v>
+      </c>
+      <c r="J20">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-      <c r="C2">
-        <v>-1.64</v>
-      </c>
-      <c r="D2">
-        <v>2.94</v>
-      </c>
-      <c r="E2">
-        <v>0.15</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1.45</v>
-      </c>
-      <c r="H2">
-        <v>8.56</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>0.62</v>
-      </c>
-      <c r="C3">
-        <v>-2.76</v>
-      </c>
-      <c r="D3">
-        <v>-1.49</v>
-      </c>
-      <c r="E3">
-        <v>3.4</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-0.84</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0.12</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-      <c r="D4">
-        <v>0.05</v>
-      </c>
-      <c r="E4">
-        <v>-0.08</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.37</v>
-      </c>
-      <c r="H4">
-        <v>9.16</v>
-      </c>
-      <c r="I4">
-        <v>9.529999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0.03</v>
-      </c>
-      <c r="C5">
-        <v>-2.73</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-0.12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-2.85</v>
-      </c>
-      <c r="H5">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="I5">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>-12.37</v>
-      </c>
-      <c r="C6">
-        <v>-2.65</v>
-      </c>
-      <c r="D6">
-        <v>0.41</v>
-      </c>
-      <c r="E6">
-        <v>1.74</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>-0.51</v>
-      </c>
-      <c r="H6">
-        <v>6.68</v>
-      </c>
-      <c r="I6">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>-0.52</v>
-      </c>
-      <c r="C7">
-        <v>-0.93</v>
-      </c>
-      <c r="D7">
-        <v>-0.06</v>
-      </c>
-      <c r="E7">
-        <v>0.87</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>-0.12</v>
-      </c>
-      <c r="H7">
-        <v>6.16</v>
-      </c>
-      <c r="I7">
-        <v>6.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>-0.05</v>
-      </c>
-      <c r="C8">
-        <v>0.35</v>
-      </c>
-      <c r="D8">
-        <v>-0.11</v>
-      </c>
-      <c r="E8">
-        <v>-0.14</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8">
-        <v>6.04</v>
-      </c>
-      <c r="I8">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>-0.16</v>
-      </c>
-      <c r="C9">
-        <v>5.15</v>
-      </c>
-      <c r="D9">
-        <v>-0.24</v>
-      </c>
-      <c r="E9">
-        <v>-2.49</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2.42</v>
-      </c>
-      <c r="H9">
-        <v>6.15</v>
-      </c>
-      <c r="I9">
-        <v>8.56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>1.85</v>
-      </c>
-      <c r="C10">
-        <v>2.24</v>
-      </c>
-      <c r="D10">
-        <v>-0.01</v>
-      </c>
-      <c r="E10">
-        <v>-0.08</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>2.15</v>
-      </c>
-      <c r="H10">
-        <v>8.56</v>
-      </c>
-      <c r="I10">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>0.61</v>
-      </c>
-      <c r="C11">
-        <v>2.22</v>
-      </c>
-      <c r="D11">
-        <v>-0.38</v>
-      </c>
-      <c r="E11">
-        <v>-0.01</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1.83</v>
-      </c>
-      <c r="H11">
-        <v>10.71</v>
-      </c>
-      <c r="I11">
-        <v>12.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0.92</v>
-      </c>
-      <c r="C12">
-        <v>0.47</v>
-      </c>
-      <c r="D12">
-        <v>-0.13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.33</v>
-      </c>
-      <c r="H12">
-        <v>12.55</v>
-      </c>
-      <c r="I12">
-        <v>12.88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>2.78</v>
-      </c>
-      <c r="C13">
-        <v>2.31</v>
-      </c>
-      <c r="D13">
-        <v>-0.12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>2.19</v>
-      </c>
-      <c r="H13">
-        <v>12.88</v>
-      </c>
-      <c r="I13">
-        <v>15.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>1.6</v>
-      </c>
-      <c r="C14">
-        <v>-1.93</v>
-      </c>
-      <c r="D14">
-        <v>-0.21</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>-2.14</v>
-      </c>
-      <c r="H14">
-        <v>15.08</v>
-      </c>
-      <c r="I14">
-        <v>12.94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>1.61</v>
-      </c>
-      <c r="C15">
-        <v>-4</v>
-      </c>
-      <c r="D15">
-        <v>-0.48</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>-4.48</v>
-      </c>
-      <c r="H15">
-        <v>12.94</v>
-      </c>
-      <c r="I15">
-        <v>8.460000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>0.42</v>
-      </c>
-      <c r="C16">
-        <v>9.67</v>
-      </c>
-      <c r="D16">
-        <v>-13.51</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>-3.84</v>
-      </c>
-      <c r="H16">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="I16">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>-4.04</v>
-      </c>
-      <c r="C17">
-        <v>4.14</v>
-      </c>
-      <c r="D17">
-        <v>-4.61</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>-0.47</v>
-      </c>
-      <c r="H17">
-        <v>4.62</v>
-      </c>
-      <c r="I17">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>3.79</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>-1.56</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>-1.56</v>
-      </c>
-      <c r="H18">
-        <v>4.15</v>
-      </c>
-      <c r="I18">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>4.61</v>
-      </c>
-      <c r="C19">
-        <v>-0.86</v>
-      </c>
-      <c r="D19">
-        <v>2.17</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1.31</v>
-      </c>
-      <c r="H19">
-        <v>2.59</v>
-      </c>
-      <c r="I19">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>10.89</v>
-      </c>
-      <c r="C20">
-        <v>6.98</v>
-      </c>
-      <c r="D20">
-        <v>-3.92</v>
-      </c>
-      <c r="E20">
-        <v>0.02</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>3.07</v>
-      </c>
-      <c r="H20">
-        <v>4.19</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>29.74</v>
+      </c>
+      <c r="D21">
+        <v>23.69</v>
+      </c>
+      <c r="E21">
+        <v>-1.26</v>
+      </c>
+      <c r="F21">
+        <v>-7.28</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>15.15</v>
+      </c>
+      <c r="I21">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>29.74</v>
-      </c>
-      <c r="C21">
-        <v>23.69</v>
-      </c>
-      <c r="D21">
-        <v>-1.26</v>
-      </c>
-      <c r="E21">
-        <v>-7.28</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>15.15</v>
-      </c>
-      <c r="H21">
-        <v>7.26</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>22.42</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>7.4</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>7.4</v>
@@ -2328,46 +2421,46 @@
         <v>7.4</v>
       </c>
       <c r="E2">
+        <v>7.4</v>
+      </c>
+      <c r="F2">
         <v>0.82</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8.23</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5.72</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.62</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>0.52</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.26</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>7.72</v>
-      </c>
-      <c r="M2">
-        <v>0.5</v>
       </c>
       <c r="N2">
         <v>0.5</v>
       </c>
       <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
         <v>0.02</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.15</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.17</v>
-      </c>
-      <c r="R2">
-        <v>0.33</v>
       </c>
       <c r="S2">
         <v>0.33</v>
@@ -2376,18 +2469,21 @@
         <v>0.33</v>
       </c>
       <c r="U2">
-        <v>1.03</v>
+        <v>0.33</v>
       </c>
       <c r="V2">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>7.89</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>7.89</v>
@@ -2396,66 +2492,69 @@
         <v>7.89</v>
       </c>
       <c r="E3">
+        <v>7.89</v>
+      </c>
+      <c r="F3">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8.460000000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5.54</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.62</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0.5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.34</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7.83</v>
-      </c>
-      <c r="M3">
-        <v>0.62</v>
       </c>
       <c r="N3">
         <v>0.62</v>
       </c>
       <c r="O3">
+        <v>0.62</v>
+      </c>
+      <c r="P3">
         <v>0.05</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.23</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.3</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.33</v>
-      </c>
-      <c r="S3">
-        <v>0.31</v>
       </c>
       <c r="T3">
         <v>0.31</v>
       </c>
       <c r="U3">
-        <v>0.83</v>
+        <v>0.31</v>
       </c>
       <c r="V3">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>8.56</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>8.56</v>
@@ -2464,43 +2563,43 @@
         <v>8.56</v>
       </c>
       <c r="E4">
+        <v>8.56</v>
+      </c>
+      <c r="F4">
         <v>0.62</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9.18</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.12</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.77</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.01</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.39</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2.19</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>9.06</v>
-      </c>
-      <c r="M4">
-        <v>0.12</v>
       </c>
       <c r="N4">
         <v>0.12</v>
       </c>
       <c r="O4">
+        <v>0.12</v>
+      </c>
+      <c r="P4">
         <v>0.01</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.03</v>
-      </c>
-      <c r="Q4">
-        <v>0.06</v>
       </c>
       <c r="R4">
         <v>0.06</v>
@@ -2512,18 +2611,21 @@
         <v>0.06</v>
       </c>
       <c r="U4">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="V4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>7.67</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>7.67</v>
@@ -2532,46 +2634,46 @@
         <v>7.67</v>
       </c>
       <c r="E5">
+        <v>7.67</v>
+      </c>
+      <c r="F5">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.23</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.71</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.15</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.06</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.33</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2.22</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>8.199999999999999</v>
-      </c>
-      <c r="M5">
-        <v>0.03</v>
       </c>
       <c r="N5">
         <v>0.03</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>0.14</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.16</v>
-      </c>
-      <c r="R5">
-        <v>-0.13</v>
       </c>
       <c r="S5">
         <v>-0.13</v>
@@ -2580,18 +2682,21 @@
         <v>-0.13</v>
       </c>
       <c r="U5">
-        <v>-0.36</v>
+        <v>-0.13</v>
       </c>
       <c r="V5">
         <v>-0.36</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>5.87</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>5.87</v>
@@ -2600,66 +2705,69 @@
         <v>5.87</v>
       </c>
       <c r="E6">
+        <v>5.87</v>
+      </c>
+      <c r="F6">
         <v>0.64</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6.51</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.14</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.71</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.09</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.25</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.44</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8.220000000000001</v>
-      </c>
-      <c r="M6">
-        <v>-1.71</v>
       </c>
       <c r="N6">
         <v>-1.71</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-1.71</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>-2.88</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-2.87</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.15</v>
-      </c>
-      <c r="S6">
-        <v>-10.01</v>
       </c>
       <c r="T6">
         <v>-10.01</v>
       </c>
       <c r="U6">
-        <v>-26.9</v>
+        <v>-10.01</v>
       </c>
       <c r="V6">
         <v>-26.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>-26.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>4.54</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>4.54</v>
@@ -2668,46 +2776,46 @@
         <v>4.54</v>
       </c>
       <c r="E7">
+        <v>4.54</v>
+      </c>
+      <c r="F7">
         <v>0.77</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5.31</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.18</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.28</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.22</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.16</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.99</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5.83</v>
-      </c>
-      <c r="M7">
-        <v>-0.52</v>
       </c>
       <c r="N7">
         <v>-0.52</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="P7">
-        <v>-0.14</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>-0.14</v>
       </c>
       <c r="R7">
-        <v>-0.38</v>
+        <v>-0.14</v>
       </c>
       <c r="S7">
         <v>-0.38</v>
@@ -2716,18 +2824,21 @@
         <v>-0.38</v>
       </c>
       <c r="U7">
-        <v>-1.01</v>
+        <v>-0.38</v>
       </c>
       <c r="V7">
         <v>-1.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>6.47</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>6.47</v>
@@ -2736,46 +2847,46 @@
         <v>6.47</v>
       </c>
       <c r="E8">
+        <v>6.47</v>
+      </c>
+      <c r="F8">
         <v>0.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7.26</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>4.01</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.21</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.16</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1.25</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>7.32</v>
-      </c>
-      <c r="M8">
-        <v>-0.05</v>
       </c>
       <c r="N8">
         <v>-0.05</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="P8">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0.24</v>
       </c>
       <c r="R8">
-        <v>-0.29</v>
+        <v>0.24</v>
       </c>
       <c r="S8">
         <v>-0.29</v>
@@ -2784,18 +2895,21 @@
         <v>-0.29</v>
       </c>
       <c r="U8">
-        <v>-0.78</v>
+        <v>-0.29</v>
       </c>
       <c r="V8">
         <v>-0.78</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>6.91</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>6.91</v>
@@ -2804,46 +2918,46 @@
         <v>6.91</v>
       </c>
       <c r="E9">
+        <v>6.91</v>
+      </c>
+      <c r="F9">
         <v>0.9399999999999999</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>7.85</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>4.44</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.09</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.17</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.6</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>8</v>
-      </c>
-      <c r="M9">
-        <v>-0.16</v>
       </c>
       <c r="N9">
         <v>-0.16</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="P9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0.1</v>
       </c>
       <c r="R9">
-        <v>-0.25</v>
+        <v>0.1</v>
       </c>
       <c r="S9">
         <v>-0.25</v>
@@ -2852,18 +2966,21 @@
         <v>-0.25</v>
       </c>
       <c r="U9">
-        <v>-0.68</v>
+        <v>-0.25</v>
       </c>
       <c r="V9">
         <v>-0.68</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>8.699999999999999</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>8.699999999999999</v>
@@ -2872,46 +2989,46 @@
         <v>8.699999999999999</v>
       </c>
       <c r="E10">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F10">
         <v>1.13</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9.83</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>4.45</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.18</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1.73</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>7.98</v>
-      </c>
-      <c r="M10">
-        <v>1.85</v>
       </c>
       <c r="N10">
         <v>1.85</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0.6</v>
       </c>
       <c r="R10">
-        <v>1.26</v>
+        <v>0.6</v>
       </c>
       <c r="S10">
         <v>1.26</v>
@@ -2920,18 +3037,21 @@
         <v>1.26</v>
       </c>
       <c r="U10">
-        <v>3.38</v>
+        <v>1.26</v>
       </c>
       <c r="V10">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>8.34</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>8.34</v>
@@ -2940,46 +3060,46 @@
         <v>8.34</v>
       </c>
       <c r="E11">
+        <v>8.34</v>
+      </c>
+      <c r="F11">
         <v>1.22</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9.56</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>5.04</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0.23</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.89</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>8.949999999999999</v>
-      </c>
-      <c r="M11">
-        <v>0.61</v>
       </c>
       <c r="N11">
         <v>0.61</v>
       </c>
       <c r="O11">
+        <v>0.61</v>
+      </c>
+      <c r="P11">
         <v>0.02</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.19</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.21</v>
-      </c>
-      <c r="R11">
-        <v>0.4</v>
       </c>
       <c r="S11">
         <v>0.4</v>
@@ -2988,18 +3108,21 @@
         <v>0.4</v>
       </c>
       <c r="U11">
-        <v>1.08</v>
+        <v>0.4</v>
       </c>
       <c r="V11">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>8.74</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>8.74</v>
@@ -3008,46 +3131,46 @@
         <v>8.74</v>
       </c>
       <c r="E12">
+        <v>8.74</v>
+      </c>
+      <c r="F12">
         <v>1.21</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>9.949999999999999</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>5.44</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0.26</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.71</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>8.77</v>
-      </c>
-      <c r="M12">
-        <v>1.18</v>
       </c>
       <c r="N12">
         <v>1.18</v>
       </c>
       <c r="O12">
+        <v>1.18</v>
+      </c>
+      <c r="P12">
         <v>0.26</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-0.02</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.24</v>
-      </c>
-      <c r="R12">
-        <v>0.9399999999999999</v>
       </c>
       <c r="S12">
         <v>0.9399999999999999</v>
@@ -3056,18 +3179,21 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="U12">
-        <v>2.53</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V12">
         <v>2.53</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>11.03</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>11.03</v>
@@ -3076,46 +3202,46 @@
         <v>11.03</v>
       </c>
       <c r="E13">
+        <v>11.03</v>
+      </c>
+      <c r="F13">
         <v>1.39</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>12.42</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>5.96</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.01</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.22</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.72</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>9.640000000000001</v>
-      </c>
-      <c r="M13">
-        <v>2.78</v>
       </c>
       <c r="N13">
         <v>2.78</v>
       </c>
       <c r="O13">
+        <v>2.78</v>
+      </c>
+      <c r="P13">
         <v>0.57</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.31</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.88</v>
-      </c>
-      <c r="R13">
-        <v>1.9</v>
       </c>
       <c r="S13">
         <v>1.9</v>
@@ -3124,18 +3250,21 @@
         <v>1.9</v>
       </c>
       <c r="U13">
-        <v>5.11</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
         <v>5.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>11.49</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>11.49</v>
@@ -3144,46 +3273,46 @@
         <v>11.49</v>
       </c>
       <c r="E14">
+        <v>11.49</v>
+      </c>
+      <c r="F14">
         <v>1.09</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>12.58</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>7.08</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.02</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.19</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.89</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>10.99</v>
-      </c>
-      <c r="M14">
-        <v>1.6</v>
       </c>
       <c r="N14">
         <v>1.6</v>
       </c>
       <c r="O14">
+        <v>1.6</v>
+      </c>
+      <c r="P14">
         <v>0.36</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3.2</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3.55</v>
-      </c>
-      <c r="R14">
-        <v>-1.96</v>
       </c>
       <c r="S14">
         <v>-1.96</v>
@@ -3192,18 +3321,21 @@
         <v>-1.96</v>
       </c>
       <c r="U14">
-        <v>-5.26</v>
+        <v>-1.96</v>
       </c>
       <c r="V14">
         <v>-5.26</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>-5.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>18.21</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>18.21</v>
@@ -3212,46 +3344,46 @@
         <v>18.21</v>
       </c>
       <c r="E15">
+        <v>18.21</v>
+      </c>
+      <c r="F15">
         <v>0.72</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>18.92</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>7.73</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.01</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.19</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.46</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>17.31</v>
-      </c>
-      <c r="M15">
-        <v>1.61</v>
       </c>
       <c r="N15">
         <v>1.61</v>
       </c>
       <c r="O15">
+        <v>1.61</v>
+      </c>
+      <c r="P15">
         <v>0.36</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.13</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.49</v>
-      </c>
-      <c r="R15">
-        <v>1.12</v>
       </c>
       <c r="S15">
         <v>1.12</v>
@@ -3260,18 +3392,21 @@
         <v>1.12</v>
       </c>
       <c r="U15">
-        <v>3.01</v>
+        <v>1.12</v>
       </c>
       <c r="V15">
         <v>3.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>25.98</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>25.98</v>
@@ -3280,46 +3415,46 @@
         <v>25.98</v>
       </c>
       <c r="E16">
+        <v>25.98</v>
+      </c>
+      <c r="F16">
         <v>0.61</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>26.59</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>8.99</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.02</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.28</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3.25</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>26.17</v>
-      </c>
-      <c r="M16">
-        <v>0.42</v>
       </c>
       <c r="N16">
         <v>0.42</v>
       </c>
       <c r="O16">
+        <v>0.42</v>
+      </c>
+      <c r="P16">
         <v>0.08</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.06</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.12</v>
-      </c>
-      <c r="R16">
-        <v>0.31</v>
       </c>
       <c r="S16">
         <v>0.31</v>
@@ -3328,18 +3463,21 @@
         <v>0.31</v>
       </c>
       <c r="U16">
-        <v>0.82</v>
+        <v>0.31</v>
       </c>
       <c r="V16">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>15.34</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>15.34</v>
@@ -3348,46 +3486,46 @@
         <v>15.34</v>
       </c>
       <c r="E17">
+        <v>15.34</v>
+      </c>
+      <c r="F17">
         <v>1.15</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>16.49</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>9.289999999999999</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.24</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.88</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3.31</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>20.78</v>
-      </c>
-      <c r="M17">
-        <v>-4.29</v>
       </c>
       <c r="N17">
         <v>-4.29</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>-4.29</v>
       </c>
       <c r="P17">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>-1.02</v>
       </c>
       <c r="R17">
-        <v>-3.27</v>
+        <v>-1.02</v>
       </c>
       <c r="S17">
         <v>-3.27</v>
@@ -3396,18 +3534,21 @@
         <v>-3.27</v>
       </c>
       <c r="U17">
-        <v>-8.82</v>
+        <v>-3.27</v>
       </c>
       <c r="V17">
         <v>-8.82</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>-8.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>27.81</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>27.81</v>
@@ -3416,46 +3557,46 @@
         <v>27.81</v>
       </c>
       <c r="E18">
+        <v>27.81</v>
+      </c>
+      <c r="F18">
         <v>1.09</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>28.9</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>9.85</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.14</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2.23</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2.08</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>32.57</v>
-      </c>
-      <c r="M18">
-        <v>-3.67</v>
       </c>
       <c r="N18">
         <v>-3.67</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>-3.67</v>
       </c>
       <c r="P18">
-        <v>-0.99</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>-0.99</v>
       </c>
       <c r="R18">
-        <v>-2.69</v>
+        <v>-0.99</v>
       </c>
       <c r="S18">
         <v>-2.69</v>
@@ -3464,18 +3605,21 @@
         <v>-2.69</v>
       </c>
       <c r="U18">
-        <v>-7.24</v>
+        <v>-2.69</v>
       </c>
       <c r="V18">
         <v>-7.24</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>-7.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>52.2</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>52.2</v>
@@ -3484,46 +3628,46 @@
         <v>52.2</v>
       </c>
       <c r="E19">
+        <v>52.2</v>
+      </c>
+      <c r="F19">
         <v>4.7</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>56.9</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>11.62</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.05</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.98</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3.47</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>52.51</v>
-      </c>
-      <c r="M19">
-        <v>4.39</v>
       </c>
       <c r="N19">
         <v>4.39</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>4.39</v>
       </c>
       <c r="P19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0.3</v>
       </c>
       <c r="R19">
-        <v>4.09</v>
+        <v>0.3</v>
       </c>
       <c r="S19">
         <v>4.09</v>
@@ -3532,66 +3676,69 @@
         <v>4.09</v>
       </c>
       <c r="U19">
-        <v>11.03</v>
+        <v>4.09</v>
       </c>
       <c r="V19">
         <v>11.03</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>167.08</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>167.08</v>
       </c>
       <c r="D20">
+        <v>167.08</v>
+      </c>
+      <c r="E20">
         <v>167.14</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.76</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>167.9</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>25.58</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>3.28</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>7.1</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>11.97</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>157.42</v>
-      </c>
-      <c r="M20">
-        <v>10.48</v>
       </c>
       <c r="N20">
         <v>10.48</v>
       </c>
       <c r="O20">
+        <v>10.48</v>
+      </c>
+      <c r="P20">
         <v>0.8</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2.42</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>3.22</v>
-      </c>
-      <c r="R20">
-        <v>7.25</v>
       </c>
       <c r="S20">
         <v>7.25</v>
@@ -3600,66 +3747,69 @@
         <v>7.25</v>
       </c>
       <c r="U20">
-        <v>14.89</v>
+        <v>7.25</v>
       </c>
       <c r="V20">
         <v>14.89</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>210.9</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>210.9</v>
       </c>
       <c r="D21">
+        <v>210.9</v>
+      </c>
+      <c r="E21">
         <v>210.98</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.28</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>211.26</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>36.17</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.47</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>4</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>9.5</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>181.18</v>
-      </c>
-      <c r="M21">
-        <v>30.08</v>
       </c>
       <c r="N21">
         <v>30.08</v>
       </c>
       <c r="O21">
+        <v>30.08</v>
+      </c>
+      <c r="P21">
         <v>7.78</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.05</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>7.85</v>
-      </c>
-      <c r="R21">
-        <v>22.23</v>
       </c>
       <c r="S21">
         <v>22.23</v>
@@ -3668,9 +3818,12 @@
         <v>22.23</v>
       </c>
       <c r="U21">
+        <v>22.23</v>
+      </c>
+      <c r="V21">
         <v>45.63</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>45.63</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>2.19</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2.99</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>1.42</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>1.53</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>2.1</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>2.41</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>2.7</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>3.15</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>2.65</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>2.29</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>2.95</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>2.25</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>2.81</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>2.91</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>3.52</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>3.62</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>2.77</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>4.92</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>6.9</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>5.9</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>5.28</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
       </c>
       <c r="D23">
         <v>6.72</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>8.08</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>6.63</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>2.42</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>2.26</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>4.03</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>1.85</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>7.73</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>12.87</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>5.36</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>7.2</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>13.57</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>14.94</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>16.49</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>22.26</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>18.02</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>43.55</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>48.25</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>46.39</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>50.05</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>53.02</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>61.52</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>47.3</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>54.08</v>
@@ -6960,164 +7113,170 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>22.99</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3.18</v>
-      </c>
-      <c r="D2">
-        <v>1.56</v>
       </c>
       <c r="E2">
         <v>1.56</v>
       </c>
       <c r="F2">
+        <v>1.56</v>
+      </c>
+      <c r="G2">
         <v>1.03</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>13.84</v>
-      </c>
-      <c r="H2">
-        <v>6.8</v>
       </c>
       <c r="I2">
         <v>6.8</v>
       </c>
       <c r="J2">
+        <v>6.8</v>
+      </c>
+      <c r="K2">
         <v>4.49</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.19</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1.17</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.01</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-1.71</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>-1.67</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>21.21</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.01</v>
-      </c>
-      <c r="D3">
-        <v>1.68</v>
       </c>
       <c r="E3">
         <v>1.68</v>
       </c>
       <c r="F3">
+        <v>1.68</v>
+      </c>
+      <c r="G3">
         <v>0.83</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14.18</v>
-      </c>
-      <c r="H3">
-        <v>7.91</v>
       </c>
       <c r="I3">
         <v>7.91</v>
       </c>
       <c r="J3">
+        <v>7.91</v>
+      </c>
+      <c r="K3">
         <v>3.91</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.98</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.96</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -7125,111 +7284,117 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>24.37</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>21.76</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>23</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.42</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.36</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.33</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.15</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>6.18</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.57</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.41</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.65</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.17</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.16</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.01</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3.33</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>6.29</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>20.61</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.11</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.23</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.36</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.37</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.11</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.35</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-1.74</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-0.42</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-0.39</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -7240,55 +7405,58 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>0.65</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1.57</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>15.77</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-3.69</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-4.35</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-4.6</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-26.9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-23.41</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-27.61</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-29.2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-170.62</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-46.18</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-39.48</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.08</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
@@ -7296,55 +7464,58 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>-1.57</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.14</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>12.2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.37</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.79</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-1.4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-1.01</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-3.07</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-6.51</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-11.45</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-8.31</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-1.76</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-1.45</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.12</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -7352,55 +7523,58 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>0.85</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>-6.07</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>17.38</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.85</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.43</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.15</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.78</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4.86</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.46</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.84</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-4.5</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-1.38</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-1.17</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.12</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -7408,52 +7582,55 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>0.14</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>18.57</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.25</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.19</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.42</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.68</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.37</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-1.03</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-2.28</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-3.66</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-1.21</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-1.13</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
@@ -7464,52 +7641,55 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>-5.19</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-54.83</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>23.39</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>5.46</v>
-      </c>
-      <c r="D10">
-        <v>4.99</v>
       </c>
       <c r="E10">
         <v>4.99</v>
       </c>
       <c r="F10">
+        <v>4.99</v>
+      </c>
+      <c r="G10">
         <v>3.38</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>23.34</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>21.32</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>21.31</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>14.44</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5.7</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>5.62</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
@@ -7517,55 +7697,58 @@
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>100</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-7.58</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-3.73</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>22.41</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2.25</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.65</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.64</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.08</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>10.05</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7.34</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>7.3</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4.84</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.79</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1.76</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
         <v>0</v>
       </c>
@@ -7573,55 +7756,58 @@
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>100</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-9.42</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-11.24</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>23.49</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3.88</v>
-      </c>
-      <c r="D12">
-        <v>3.16</v>
       </c>
       <c r="E12">
         <v>3.16</v>
       </c>
       <c r="F12">
+        <v>3.16</v>
+      </c>
+      <c r="G12">
         <v>2.53</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>16.49</v>
-      </c>
-      <c r="H12">
-        <v>13.46</v>
       </c>
       <c r="I12">
         <v>13.46</v>
       </c>
       <c r="J12">
+        <v>13.46</v>
+      </c>
+      <c r="K12">
         <v>10.76</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4.1</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3.96</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
         <v>0</v>
       </c>
@@ -7629,55 +7815,58 @@
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>100</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-5.63</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>29.65</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>8.09</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>7.5</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>7.47</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5.11</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>27.26</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>25.28</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>25.2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>17.23</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>7.66</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>7.36</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
         <v>0</v>
       </c>
@@ -7688,52 +7877,55 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>11.1</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3.69</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>30.89</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4.88</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4.36</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4.3</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-5.26</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>15.78</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>14.1</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>13.9</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-17.01</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-8.57</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-8.18</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
         <v>0</v>
       </c>
@@ -7744,52 +7936,55 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>4.98</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.74</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>49.11</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4.87</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4.36</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4.34</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.01</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>9.9</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8.869999999999999</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8.84</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>6.13</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4.68</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3.85</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
         <v>0</v>
       </c>
@@ -7800,52 +7995,55 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>17.49</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>9.699999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>70.06999999999999</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.96</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.14</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.82</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.79</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.7</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.62</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.17</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.26</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.88</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
         <v>0</v>
       </c>
@@ -7856,52 +8054,55 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>29.64</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>40.85</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>41.38</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-5.86</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-10.93</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-11.58</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-8.82</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-14.15</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-26.4</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-27.98</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-21.32</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-15.51</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-8.33</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
         <v>0</v>
       </c>
@@ -7912,52 +8113,55 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>5.42</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-2.49</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>75.01000000000001</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-3.52</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-9.539999999999999</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-9.91</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-7.24</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-4.69</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-12.71</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-13.21</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-9.65</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-14.66</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-7.85</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
@@ -7968,52 +8172,55 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>98.66</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-75.53</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>140.8</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>17.31</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>11.98</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>11.83</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>11.03</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>12.29</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8.5</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>8.4</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>7.83</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>18.11</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>11.73</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
@@ -8024,55 +8231,58 @@
         <v>0</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>57.92</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>9.029999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>343.15</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>42.81</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>28.24</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>21.51</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>14.89</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>12.47</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8.220000000000001</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>6.26</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>4.34</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>20.2</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>6.44</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.83</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
       <c r="O20">
         <v>0</v>
       </c>
@@ -8080,55 +8290,58 @@
         <v>0</v>
       </c>
       <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>238.43</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>11.43</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>433.16</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>75.03</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>66.81999999999999</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>61.76</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>45.63</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>17.32</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>15.42</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>14.25</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10.53</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>38.4</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>16.73</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.39</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
         <v>0</v>
       </c>
@@ -8136,9 +8349,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>911.89</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>24.95</v>
       </c>
     </row>
